--- a/scripts/Half-Orc.xlsx
+++ b/scripts/Half-Orc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -1871,7 +1871,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1884,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1897,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1910,7 +1910,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1923,7 +1923,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1962,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1975,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -1988,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -2001,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2014,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2027,7 +2027,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="10"/>
@@ -2040,7 +2040,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="10"/>
@@ -2053,7 +2053,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="10"/>
@@ -2066,7 +2066,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="10"/>
@@ -2079,7 +2079,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="10"/>
@@ -2092,7 +2092,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
@@ -2105,7 +2105,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
@@ -2118,7 +2118,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
@@ -2131,7 +2131,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -2144,7 +2144,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
@@ -2157,7 +2157,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
@@ -2170,7 +2170,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
@@ -2183,7 +2183,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
@@ -2196,7 +2196,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
@@ -2209,7 +2209,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
@@ -2222,7 +2222,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
@@ -2235,7 +2235,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
@@ -2248,7 +2248,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
@@ -2261,7 +2261,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
@@ -2274,7 +2274,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
@@ -2287,7 +2287,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
@@ -2300,7 +2300,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
@@ -2313,7 +2313,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
@@ -2326,7 +2326,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
@@ -2339,7 +2339,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
@@ -2352,7 +2352,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
@@ -2365,7 +2365,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
@@ -2378,7 +2378,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
@@ -2391,7 +2391,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
@@ -2404,7 +2404,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
@@ -2417,7 +2417,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
@@ -2430,7 +2430,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
@@ -2443,7 +2443,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
@@ -2456,7 +2456,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
@@ -2469,7 +2469,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
@@ -2482,7 +2482,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
@@ -2495,7 +2495,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
@@ -2508,7 +2508,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
@@ -2521,7 +2521,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
@@ -2534,7 +2534,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
@@ -2547,7 +2547,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
@@ -2560,7 +2560,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
@@ -2573,7 +2573,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
@@ -2586,7 +2586,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
@@ -2599,7 +2599,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
@@ -2612,7 +2612,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
@@ -2625,7 +2625,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
@@ -2638,7 +2638,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
@@ -2651,7 +2651,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="10"/>
@@ -2664,7 +2664,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="10"/>
@@ -2677,7 +2677,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="10"/>
@@ -2690,7 +2690,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="10"/>
@@ -2703,7 +2703,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -2716,7 +2716,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="10"/>
@@ -2729,7 +2729,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="10"/>
@@ -2742,7 +2742,7 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>IF(B73&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D73" s="10"/>
@@ -2755,7 +2755,7 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>IF(B74&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D74" s="10"/>
@@ -2768,7 +2768,7 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>IF(B75&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D75" s="10"/>
@@ -2781,7 +2781,7 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>IF(B76&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D76" s="10"/>
@@ -2794,7 +2794,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>IF(B77&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D77" s="10"/>
@@ -2807,7 +2807,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>IF(B78&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D78" s="10"/>
@@ -2820,7 +2820,7 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>IF(B79&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D79" s="10"/>
@@ -2833,7 +2833,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f>IF(B80&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D80" s="10"/>
@@ -2846,7 +2846,7 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="9" t="str">
-        <f>IF(B81&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D81" s="10"/>
@@ -2859,7 +2859,7 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="9" t="str">
-        <f>IF(B82&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D82" s="7"/>
@@ -2872,7 +2872,7 @@
         <v>0.1</v>
       </c>
       <c r="C83" s="9" t="str">
-        <f>IF(B83&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D83" s="7"/>
@@ -2885,7 +2885,7 @@
         <v>0.1</v>
       </c>
       <c r="C84" s="9" t="str">
-        <f>IF(B84&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D84" s="7"/>
@@ -2898,7 +2898,7 @@
         <v>0.1</v>
       </c>
       <c r="C85" s="9" t="str">
-        <f>IF(B85&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D85" s="7"/>
@@ -2911,7 +2911,7 @@
         <v>0.1</v>
       </c>
       <c r="C86" s="9" t="str">
-        <f>IF(B86&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D86" s="7"/>
@@ -2924,7 +2924,7 @@
         <v>0.1</v>
       </c>
       <c r="C87" s="9" t="str">
-        <f>IF(B87&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D87" s="7"/>
@@ -2937,7 +2937,7 @@
         <v>0.1</v>
       </c>
       <c r="C88" s="9" t="str">
-        <f>IF(B88&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D88" s="7"/>
@@ -3020,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3606,7 +3606,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -3619,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -3632,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -3645,7 +3645,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -3658,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -3684,7 +3684,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -3697,7 +3697,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -3710,7 +3710,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -3723,7 +3723,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -3736,7 +3736,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -3749,7 +3749,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -3762,7 +3762,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -3775,7 +3775,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -3788,7 +3788,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -3801,7 +3801,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -3814,7 +3814,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -3827,7 +3827,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -3840,7 +3840,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -3853,7 +3853,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -3866,7 +3866,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -3879,7 +3879,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -3892,7 +3892,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -3905,7 +3905,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -3918,7 +3918,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -3931,7 +3931,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -3944,7 +3944,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -3957,7 +3957,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -3970,7 +3970,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -3983,7 +3983,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -3996,7 +3996,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4009,7 +4009,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -4022,7 +4022,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -4035,7 +4035,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
@@ -4048,7 +4048,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
@@ -4061,7 +4061,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="7"/>
@@ -4074,7 +4074,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="7"/>
@@ -4087,7 +4087,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
@@ -4100,7 +4100,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
@@ -4113,7 +4113,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="8"/>
@@ -4126,7 +4126,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="7"/>
@@ -4139,7 +4139,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="7"/>
@@ -4152,7 +4152,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="8"/>
@@ -4165,7 +4165,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="7"/>
@@ -4178,7 +4178,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="7"/>
@@ -4191,7 +4191,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="8"/>
@@ -4204,7 +4204,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -4299,7 +4299,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -4312,7 +4312,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -4325,7 +4325,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -4338,7 +4338,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -4351,7 +4351,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -4364,7 +4364,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -4377,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -4390,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
@@ -4416,7 +4416,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -4429,7 +4429,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -4442,7 +4442,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -4455,7 +4455,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -4468,7 +4468,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -4481,7 +4481,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -4494,7 +4494,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -4507,7 +4507,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -4520,7 +4520,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -4533,7 +4533,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -4546,7 +4546,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -4559,7 +4559,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -4572,7 +4572,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -4585,7 +4585,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -4598,7 +4598,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -4611,7 +4611,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -4624,7 +4624,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -4637,7 +4637,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -4650,7 +4650,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -4663,7 +4663,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -4676,7 +4676,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -4689,7 +4689,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -4702,7 +4702,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4715,7 +4715,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -4728,7 +4728,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -4741,7 +4741,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
@@ -4754,7 +4754,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
@@ -4767,7 +4767,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="7"/>
@@ -4780,7 +4780,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="7"/>
@@ -4793,7 +4793,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="7"/>
@@ -4806,7 +4806,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="7"/>
@@ -4819,7 +4819,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="7"/>
@@ -4832,7 +4832,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="7"/>
@@ -4845,7 +4845,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="7"/>
@@ -4858,7 +4858,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="7"/>
@@ -4871,7 +4871,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="7"/>
@@ -4884,7 +4884,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="7"/>
@@ -4897,7 +4897,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="7"/>
@@ -4910,7 +4910,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="7"/>
@@ -4923,7 +4923,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="7"/>
@@ -4936,7 +4936,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="7"/>
@@ -4949,7 +4949,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="7"/>
@@ -4962,7 +4962,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="7"/>
@@ -4975,7 +4975,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="7"/>
@@ -4988,7 +4988,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="7"/>
@@ -5001,7 +5001,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="7"/>
@@ -5080,7 +5080,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1,"common","rare")</f>
+        <f t="shared" ref="C6:C11" si="0">IF(B6&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1,"common","rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5504,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5517,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5530,7 +5530,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5543,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5556,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5569,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -5595,7 +5595,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -5608,7 +5608,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -5621,7 +5621,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -5634,7 +5634,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -5647,7 +5647,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -5660,7 +5660,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -5673,7 +5673,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -5686,7 +5686,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -5699,7 +5699,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -5712,7 +5712,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -5725,7 +5725,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -5738,7 +5738,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -5751,7 +5751,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -5764,7 +5764,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -5777,7 +5777,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -5790,7 +5790,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -5803,7 +5803,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -5816,7 +5816,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -5829,7 +5829,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -5842,7 +5842,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -5855,7 +5855,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -5868,7 +5868,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -5881,7 +5881,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -5894,7 +5894,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -5907,7 +5907,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -5920,7 +5920,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -5933,7 +5933,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -7291,7 +7291,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -7304,7 +7304,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7317,7 +7317,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7330,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -7343,7 +7343,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D10" s="10"/>
@@ -7356,7 +7356,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D11" s="10"/>
@@ -7369,7 +7369,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="10"/>
@@ -7382,7 +7382,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="10"/>
@@ -7395,7 +7395,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="10"/>
@@ -7408,7 +7408,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -7421,7 +7421,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7689,7 +7689,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C26" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -7702,7 +7702,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7715,7 +7715,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7728,7 +7728,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -7741,7 +7741,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -7767,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -7793,7 +7793,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
@@ -7806,7 +7806,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -7819,7 +7819,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7832,7 +7832,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -7845,7 +7845,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -7858,7 +7858,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -7871,7 +7871,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -7884,7 +7884,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -7897,7 +7897,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -7910,7 +7910,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
@@ -7923,7 +7923,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
@@ -7936,7 +7936,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
@@ -7949,7 +7949,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
@@ -8217,7 +8217,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C41" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8230,7 +8230,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8243,7 +8243,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8256,7 +8256,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8269,7 +8269,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8282,7 +8282,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8295,7 +8295,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8321,7 +8321,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
@@ -8334,7 +8334,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -8347,7 +8347,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8360,7 +8360,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8373,7 +8373,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8386,7 +8386,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8399,7 +8399,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -8412,7 +8412,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -8425,7 +8425,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -8438,7 +8438,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
@@ -8451,7 +8451,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
@@ -8464,7 +8464,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
@@ -8477,7 +8477,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -8490,7 +8490,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8503,7 +8503,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -8516,7 +8516,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -8529,7 +8529,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8542,7 +8542,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8555,7 +8555,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8568,7 +8568,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8581,7 +8581,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8594,7 +8594,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="8"/>
@@ -8607,7 +8607,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="8"/>
@@ -8620,7 +8620,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="8"/>
@@ -8633,7 +8633,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
@@ -8646,7 +8646,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="8"/>
@@ -8659,7 +8659,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="8"/>
@@ -8672,7 +8672,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="8"/>
@@ -8800,7 +8800,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C14" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -8813,7 +8813,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -8826,7 +8826,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -8852,7 +8852,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D10" s="7"/>
@@ -8865,7 +8865,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D11" s="7"/>
@@ -8878,7 +8878,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
@@ -8891,7 +8891,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
@@ -8904,7 +8904,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9053,7 +9053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -9256,7 +9256,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -9282,7 +9282,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
@@ -9592,7 +9592,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9605,7 +9605,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9618,7 +9618,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -9631,7 +9631,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -9644,7 +9644,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -9657,7 +9657,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -9670,7 +9670,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -9683,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9696,7 +9696,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9709,7 +9709,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9722,7 +9722,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9735,7 +9735,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9748,7 +9748,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9761,7 +9761,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -9774,7 +9774,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9787,7 +9787,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -9800,7 +9800,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9813,7 +9813,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9826,7 +9826,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>

--- a/scripts/Half-Orc.xlsx
+++ b/scripts/Half-Orc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="435">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1343,6 +1343,9 @@
   </si>
   <si>
     <t>vixen</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1355,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1457,59 +1467,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1529,6 +1541,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1806,7 +1819,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,6 +1835,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1834,6 +1850,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1847,6 +1867,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>71</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -2703,7 +2727,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C88" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -2952,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,15 +2988,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2983,8 +3010,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2996,12 +3027,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3012,7 +3047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -3024,7 +3059,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -3036,7 +3071,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -3048,7 +3083,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -3060,7 +3095,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -3072,7 +3107,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -3084,7 +3119,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -3096,7 +3131,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -3108,7 +3143,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -3120,7 +3155,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -3132,7 +3167,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -3226,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3238,15 +3273,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3257,8 +3295,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3270,12 +3312,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3286,7 +3332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3298,7 +3344,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3310,7 +3356,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -3322,7 +3368,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3334,7 +3380,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -3346,7 +3392,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3358,7 +3404,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3370,7 +3416,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3382,7 +3428,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3394,7 +3440,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -3406,7 +3452,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3515,7 +3561,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3531,6 +3577,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3543,6 +3592,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3556,6 +3609,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>41</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.640625</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -3996,7 +4053,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C54" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4221,7 +4278,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4237,6 +4294,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4249,6 +4309,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -4262,6 +4326,10 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>46</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.46</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -4702,7 +4770,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C61" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -5016,10 +5084,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5028,15 +5096,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -5047,8 +5118,12 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5060,8 +5135,12 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5072,7 +5151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -5084,7 +5163,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -5096,7 +5175,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -5108,7 +5187,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -5120,7 +5199,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -5132,7 +5211,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>432</v>
       </c>
@@ -5144,7 +5223,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>430</v>
       </c>
@@ -5156,7 +5235,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>429</v>
       </c>
@@ -5168,7 +5247,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5180,7 +5259,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -5192,7 +5271,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>431</v>
       </c>
@@ -5236,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5246,15 +5325,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -5265,8 +5347,12 @@
         <f>COUNTIF(C$6:C100, "common")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5278,11 +5364,15 @@
         <f>COUNTIF(C$6:C100, "rare")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5293,7 +5383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -5305,7 +5395,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5317,7 +5407,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -5329,7 +5419,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -5341,7 +5431,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>433</v>
       </c>
@@ -5353,7 +5443,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -5365,7 +5455,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -5377,15 +5467,15 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
@@ -5426,7 +5516,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5442,6 +5532,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5454,6 +5547,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5466,6 +5563,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>27</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.421875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6186,7 +6287,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6202,6 +6303,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6214,6 +6318,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -6226,6 +6334,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7226,7 +7338,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7242,6 +7354,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7254,6 +7369,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>4</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7266,6 +7385,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>7</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7624,7 +7747,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7640,6 +7763,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7652,6 +7778,10 @@
         <f>COUNTIF(C$6:C100, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7664,6 +7794,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C100, "rare")</f>
         <v>16</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8152,7 +8286,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8168,6 +8302,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8180,6 +8317,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8192,6 +8333,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>28</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8735,7 +8880,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8751,6 +8896,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8763,6 +8911,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>4</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8775,6 +8927,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>5</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9053,8 +9209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9070,6 +9226,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9082,6 +9241,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9095,6 +9258,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>23</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9119,7 +9286,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9132,7 +9299,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9145,7 +9312,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9158,7 +9325,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9171,7 +9338,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9184,7 +9351,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9197,7 +9364,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9210,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9223,7 +9390,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9236,7 +9403,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9249,7 +9416,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9262,7 +9429,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9275,7 +9442,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9288,7 +9455,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -9301,7 +9468,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9314,7 +9481,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -9327,7 +9494,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9340,7 +9507,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9353,7 +9520,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -9366,7 +9533,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -9379,7 +9546,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -9392,7 +9559,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -9405,7 +9572,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -9418,7 +9585,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -9431,7 +9598,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -9444,7 +9611,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -9457,7 +9624,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -9470,7 +9637,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -9483,7 +9650,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -9496,7 +9663,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -9509,7 +9676,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -9527,7 +9694,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9543,6 +9710,9 @@
       <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9555,6 +9725,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9567,6 +9741,10 @@
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.171875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/scripts/Half-Orc.xlsx
+++ b/scripts/Half-Orc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="435">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.49305555555555558</v>
+        <v>0.21527777777777779</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1895,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1908,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1921,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1934,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1947,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1960,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1973,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1986,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -2025,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2051,7 +2051,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="10"/>
@@ -2064,7 +2064,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="10"/>
@@ -2077,7 +2077,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="10"/>
@@ -2090,885 +2090,685 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>411</v>
+        <v>173</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>278</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>395</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>415</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="5">
+        <v>425</v>
+      </c>
+      <c r="B32">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>395</v>
+      <c r="A33" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>407</v>
+        <v>149</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>385</v>
       </c>
       <c r="B41" s="5">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="B42" s="5">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="B43" s="5">
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>421</v>
-      </c>
-      <c r="B44" s="5">
+        <v>418</v>
+      </c>
+      <c r="B44" s="4">
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>423</v>
-      </c>
-      <c r="B45" s="5">
+        <v>217</v>
+      </c>
+      <c r="B45" s="4">
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>424</v>
-      </c>
-      <c r="B46" s="5">
+        <v>160</v>
+      </c>
+      <c r="B46" s="4">
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>425</v>
-      </c>
-      <c r="B47">
+        <v>422</v>
+      </c>
+      <c r="B47" s="4">
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B48" s="5">
+      <c r="A48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" s="4">
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>367</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>368</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>370</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>371</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>372</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>373</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>374</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>375</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>376</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>377</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>378</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>379</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>380</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C64" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>382</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>383</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>384</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>385</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>386</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>387</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C88" si="2">IF(B70&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>388</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>389</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>390</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>391</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>396</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>398</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>401</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>403</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>404</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C81" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>405</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C82" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>418</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C83" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>217</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C84" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>422</v>
-      </c>
-      <c r="B86" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C86" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>426</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C87" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="9"/>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>427</v>
       </c>
-      <c r="B88" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C88" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A6:C88">
-    <sortCondition descending="1" ref="B86"/>
+    <sortCondition descending="1" ref="B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2979,7 +2779,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3025,11 +2825,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.8125</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3055,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3067,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3079,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3091,169 +2891,119 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4">
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C22">
-    <sortCondition descending="1" ref="B22"/>
+    <sortCondition descending="1" ref="B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3264,7 +3014,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3310,11 +3060,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3340,7 +3090,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3352,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3364,7 +3114,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3376,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3388,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3400,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3412,7 +3162,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -3424,133 +3174,118 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="5">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="4">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C23">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3561,7 +3296,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3607,11 +3342,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.640625</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3637,7 +3372,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3650,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3663,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -3676,7 +3411,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -3689,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -3702,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -3715,7 +3450,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3728,546 +3463,386 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="5">
+        <v>82</v>
+      </c>
+      <c r="B14">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A22" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B22">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>87</v>
+      <c r="A23" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B23">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>86</v>
+      <c r="A24" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B24">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="A35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C54" si="1">IF(B38&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C41" s="9"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C43" s="9"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C48" s="9"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="C54" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C54">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4278,7 +3853,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4324,11 +3899,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4354,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -4367,7 +3942,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -4380,7 +3955,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -4393,7 +3968,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -4406,7 +3981,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -4419,7 +3994,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -4432,7 +4007,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -4445,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -4458,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -4471,612 +4046,447 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C61" si="1">IF(B38&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A6:C61">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5087,7 +4497,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5133,11 +4543,11 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.5</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,7 +4569,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C11" si="0">IF(B6&gt;=1,"common","rare")</f>
+        <f>IF(B6&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5171,7 +4581,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5183,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5195,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5207,49 +4617,49 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B11" s="4">
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>430</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f>IF(B12&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B13" s="4">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f>IF(B13&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>428</v>
       </c>
       <c r="B14" s="4">
         <v>0.1</v>
@@ -5261,39 +4671,24 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5305,7 +4700,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C17">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5315,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5345,11 +4740,11 @@
       </c>
       <c r="C2">
         <f>COUNTIF(C$6:C100, "common")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="15">
         <f>C2/B2</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5388,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9" t="str">
         <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
@@ -5400,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5412,11 +4807,11 @@
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="C8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>common</v>
+        <v>rare</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5424,11 +4819,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>common</v>
+        <v>rare</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5447,25 +4842,15 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -5516,7 +4901,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5562,11 +4947,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.421875</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5592,7 +4977,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5605,7 +4990,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5618,7 +5003,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5631,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5644,7 +5029,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5657,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5670,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5683,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -5696,347 +5081,247 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>337</v>
+        <v>160</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" s="5">
+        <v>175</v>
+      </c>
+      <c r="B17" s="4">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="5">
+        <v>339</v>
+      </c>
+      <c r="B18" s="4">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B20" s="5">
+        <v>345</v>
+      </c>
+      <c r="B20" s="4">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6276,7 +5561,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C40">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6287,7 +5572,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6333,11 +5618,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6363,7 +5648,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -6376,7 +5661,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -6389,7 +5674,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -6402,7 +5687,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -6415,7 +5700,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -6428,7 +5713,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -6441,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -6454,7 +5739,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -6467,7 +5752,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -6480,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -6493,7 +5778,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="2"/>
@@ -6506,828 +5791,603 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C64" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C80" si="2">IF(B70&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B72" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B74" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B76" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B77" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B78" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B79" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B80" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A6:C79">
-    <sortCondition descending="1" ref="B6"/>
+  <sortState ref="A6:C80">
+    <sortCondition descending="1" ref="B42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7338,7 +6398,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7384,11 +6444,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.4375</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7414,7 +6474,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -7427,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7440,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7453,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -7466,87 +6526,67 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B11" s="5">
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7736,7 +6776,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C16">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7747,7 +6787,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7793,11 +6833,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C100, "rare")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7823,7 +6863,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C26" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -7836,7 +6876,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7849,7 +6889,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7862,7 +6902,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -7875,7 +6915,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -7888,7 +6928,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -7901,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -7914,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -7927,7 +6967,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
@@ -7940,7 +6980,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -7953,7 +6993,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7966,7 +7006,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -7979,7 +7019,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -7992,7 +7032,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8005,92 +7045,91 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
@@ -8102,26 +7141,18 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -8275,7 +7306,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C47">
-    <sortCondition descending="1" ref="B30"/>
+    <sortCondition descending="1" ref="B29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8286,7 +7317,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8332,11 +7363,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.4375</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8362,7 +7393,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C41" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8375,7 +7406,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8388,7 +7419,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8401,7 +7432,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8414,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8427,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8440,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8453,373 +7484,292 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16">
+        <v>226</v>
+      </c>
+      <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="5">
+        <v>245</v>
+      </c>
+      <c r="B25">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C28" s="9"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -8880,7 +7830,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8926,11 +7876,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9030,39 +7980,24 @@
       <c r="A12" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -9210,7 +8145,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9256,11 +8191,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.359375</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9286,7 +8221,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9299,7 +8234,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9312,7 +8247,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9325,7 +8260,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9338,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9351,7 +8286,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9364,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9377,313 +8312,258 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C36">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9694,7 +8574,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
